--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.79813227786167</v>
+        <v>2.1984695</v>
       </c>
       <c r="H2">
-        <v>1.79813227786167</v>
+        <v>4.396939</v>
       </c>
       <c r="I2">
-        <v>0.002542823638754811</v>
+        <v>0.002958499252611962</v>
       </c>
       <c r="J2">
-        <v>0.002542823638754811</v>
+        <v>0.001988798532331175</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60841422868422</v>
+        <v>6.6221625</v>
       </c>
       <c r="N2">
-        <v>6.60841422868422</v>
+        <v>13.244325</v>
       </c>
       <c r="O2">
-        <v>0.1777172903528153</v>
+        <v>0.1645660484012193</v>
       </c>
       <c r="P2">
-        <v>0.1777172903528153</v>
+        <v>0.1234907935648703</v>
       </c>
       <c r="Q2">
-        <v>11.88280293007743</v>
+        <v>14.55862228029375</v>
       </c>
       <c r="R2">
-        <v>11.88280293007743</v>
+        <v>58.234489121175</v>
       </c>
       <c r="S2">
-        <v>0.0004519037269245911</v>
+        <v>0.0004868685312003113</v>
       </c>
       <c r="T2">
-        <v>0.0004519037269245911</v>
+        <v>0.0002455983089982261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.79813227786167</v>
+        <v>2.1984695</v>
       </c>
       <c r="H3">
-        <v>1.79813227786167</v>
+        <v>4.396939</v>
       </c>
       <c r="I3">
-        <v>0.002542823638754811</v>
+        <v>0.002958499252611962</v>
       </c>
       <c r="J3">
-        <v>0.002542823638754811</v>
+        <v>0.001988798532331175</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.86956470784612</v>
+        <v>4.147608666666667</v>
       </c>
       <c r="N3">
-        <v>3.86956470784612</v>
+        <v>12.442826</v>
       </c>
       <c r="O3">
-        <v>0.1040625679513766</v>
+        <v>0.1030714013115781</v>
       </c>
       <c r="P3">
-        <v>0.1040625679513766</v>
+        <v>0.1160175740877395</v>
       </c>
       <c r="Q3">
-        <v>6.957989202452471</v>
+        <v>9.118391151602333</v>
       </c>
       <c r="R3">
-        <v>6.957989202452471</v>
+        <v>54.710346909614</v>
       </c>
       <c r="S3">
-        <v>0.0002646127576962893</v>
+        <v>0.0003049366637459714</v>
       </c>
       <c r="T3">
-        <v>0.0002646127576962893</v>
+        <v>0.0002307355810703197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.79813227786167</v>
+        <v>2.1984695</v>
       </c>
       <c r="H4">
-        <v>1.79813227786167</v>
+        <v>4.396939</v>
       </c>
       <c r="I4">
-        <v>0.002542823638754811</v>
+        <v>0.002958499252611962</v>
       </c>
       <c r="J4">
-        <v>0.002542823638754811</v>
+        <v>0.001988798532331175</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.44581473733523</v>
+        <v>5.258904333333334</v>
       </c>
       <c r="N4">
-        <v>3.44581473733523</v>
+        <v>15.776713</v>
       </c>
       <c r="O4">
-        <v>0.09266683912139452</v>
+        <v>0.1306879897702171</v>
       </c>
       <c r="P4">
-        <v>0.09266683912139452</v>
+        <v>0.147102914509815</v>
       </c>
       <c r="Q4">
-        <v>6.19603070273391</v>
+        <v>11.56154078025117</v>
       </c>
       <c r="R4">
-        <v>6.19603070273391</v>
+        <v>69.369244681507</v>
       </c>
       <c r="S4">
-        <v>0.0002356354290465711</v>
+        <v>0.0003866403200605471</v>
       </c>
       <c r="T4">
-        <v>0.0002356354290465711</v>
+        <v>0.0002925580604787583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.79813227786167</v>
+        <v>2.1984695</v>
       </c>
       <c r="H5">
-        <v>1.79813227786167</v>
+        <v>4.396939</v>
       </c>
       <c r="I5">
-        <v>0.002542823638754811</v>
+        <v>0.002958499252611962</v>
       </c>
       <c r="J5">
-        <v>0.002542823638754811</v>
+        <v>0.001988798532331175</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.85474560736294</v>
+        <v>10.239676</v>
       </c>
       <c r="N5">
-        <v>9.85474560736294</v>
+        <v>30.719028</v>
       </c>
       <c r="O5">
-        <v>0.2650195078351736</v>
+        <v>0.2544641597406895</v>
       </c>
       <c r="P5">
-        <v>0.2650195078351736</v>
+        <v>0.2864258575096481</v>
       </c>
       <c r="Q5">
-        <v>17.72013616671481</v>
+        <v>22.511615375882</v>
       </c>
       <c r="R5">
-        <v>17.72013616671481</v>
+        <v>135.069692255292</v>
       </c>
       <c r="S5">
-        <v>0.0006738978692544455</v>
+        <v>0.0007528320264093607</v>
       </c>
       <c r="T5">
-        <v>0.0006738978692544455</v>
+        <v>0.0005696433250368862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.79813227786167</v>
+        <v>2.1984695</v>
       </c>
       <c r="H6">
-        <v>1.79813227786167</v>
+        <v>4.396939</v>
       </c>
       <c r="I6">
-        <v>0.002542823638754811</v>
+        <v>0.002958499252611962</v>
       </c>
       <c r="J6">
-        <v>0.002542823638754811</v>
+        <v>0.001988798532331175</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.76014866521763</v>
+        <v>7.123003666666666</v>
       </c>
       <c r="N6">
-        <v>6.76014866521763</v>
+        <v>21.369011</v>
       </c>
       <c r="O6">
-        <v>0.1817978204135494</v>
+        <v>0.1770123530147031</v>
       </c>
       <c r="P6">
-        <v>0.1817978204135494</v>
+        <v>0.1992457996980927</v>
       </c>
       <c r="Q6">
-        <v>12.15564151807131</v>
+        <v>15.65970630955483</v>
       </c>
       <c r="R6">
-        <v>12.15564151807131</v>
+        <v>93.95823785732898</v>
       </c>
       <c r="S6">
-        <v>0.0004622797952216754</v>
+        <v>0.000523690914097084</v>
       </c>
       <c r="T6">
-        <v>0.0004622797952216754</v>
+        <v>0.000396259754012718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.79813227786167</v>
+        <v>2.1984695</v>
       </c>
       <c r="H7">
-        <v>1.79813227786167</v>
+        <v>4.396939</v>
       </c>
       <c r="I7">
-        <v>0.002542823638754811</v>
+        <v>0.002958499252611962</v>
       </c>
       <c r="J7">
-        <v>0.002542823638754811</v>
+        <v>0.001988798532331175</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.64629397379803</v>
+        <v>6.848795</v>
       </c>
       <c r="N7">
-        <v>6.64629397379803</v>
+        <v>13.69759</v>
       </c>
       <c r="O7">
-        <v>0.1787359743256906</v>
+        <v>0.1701980477615928</v>
       </c>
       <c r="P7">
-        <v>0.1787359743256906</v>
+        <v>0.1277170606298344</v>
       </c>
       <c r="Q7">
-        <v>11.95091572244374</v>
+        <v>15.0568669192525</v>
       </c>
       <c r="R7">
-        <v>11.95091572244374</v>
+        <v>60.22746767701</v>
       </c>
       <c r="S7">
-        <v>0.000454494060611239</v>
+        <v>0.0005035307970986874</v>
       </c>
       <c r="T7">
-        <v>0.000454494060611239</v>
+        <v>0.0002540035027342663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.077353138983391</v>
+        <v>8.625897666666667</v>
       </c>
       <c r="H8">
-        <v>8.077353138983391</v>
+        <v>25.877693</v>
       </c>
       <c r="I8">
-        <v>0.01142256593313733</v>
+        <v>0.0116079444358635</v>
       </c>
       <c r="J8">
-        <v>0.01142256593313733</v>
+        <v>0.01170485145655119</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.60841422868422</v>
+        <v>6.6221625</v>
       </c>
       <c r="N8">
-        <v>6.60841422868422</v>
+        <v>13.244325</v>
       </c>
       <c r="O8">
-        <v>0.1777172903528153</v>
+        <v>0.1645660484012193</v>
       </c>
       <c r="P8">
-        <v>0.1777172903528153</v>
+        <v>0.1234907935648703</v>
       </c>
       <c r="Q8">
-        <v>53.37849541376499</v>
+        <v>57.1220960570375</v>
       </c>
       <c r="R8">
-        <v>53.37849541376499</v>
+        <v>342.732576342225</v>
       </c>
       <c r="S8">
-        <v>0.002029987466513544</v>
+        <v>0.001910273545870977</v>
       </c>
       <c r="T8">
-        <v>0.002029987466513544</v>
+        <v>0.001445441394928434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.077353138983391</v>
+        <v>8.625897666666667</v>
       </c>
       <c r="H9">
-        <v>8.077353138983391</v>
+        <v>25.877693</v>
       </c>
       <c r="I9">
-        <v>0.01142256593313733</v>
+        <v>0.0116079444358635</v>
       </c>
       <c r="J9">
-        <v>0.01142256593313733</v>
+        <v>0.01170485145655119</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.86956470784612</v>
+        <v>4.147608666666667</v>
       </c>
       <c r="N9">
-        <v>3.86956470784612</v>
+        <v>12.442826</v>
       </c>
       <c r="O9">
-        <v>0.1040625679513766</v>
+        <v>0.1030714013115781</v>
       </c>
       <c r="P9">
-        <v>0.1040625679513766</v>
+        <v>0.1160175740877395</v>
       </c>
       <c r="Q9">
-        <v>31.2558406394202</v>
+        <v>35.77684792004644</v>
       </c>
       <c r="R9">
-        <v>31.2558406394202</v>
+        <v>321.991631280418</v>
       </c>
       <c r="S9">
-        <v>0.001188661543596183</v>
+        <v>0.001196447099351386</v>
       </c>
       <c r="T9">
-        <v>0.001188661543596183</v>
+        <v>0.001357968471046413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.077353138983391</v>
+        <v>8.625897666666667</v>
       </c>
       <c r="H10">
-        <v>8.077353138983391</v>
+        <v>25.877693</v>
       </c>
       <c r="I10">
-        <v>0.01142256593313733</v>
+        <v>0.0116079444358635</v>
       </c>
       <c r="J10">
-        <v>0.01142256593313733</v>
+        <v>0.01170485145655119</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.44581473733523</v>
+        <v>5.258904333333334</v>
       </c>
       <c r="N10">
-        <v>3.44581473733523</v>
+        <v>15.776713</v>
       </c>
       <c r="O10">
-        <v>0.09266683912139452</v>
+        <v>0.1306879897702171</v>
       </c>
       <c r="P10">
-        <v>0.09266683912139452</v>
+        <v>0.147102914509815</v>
       </c>
       <c r="Q10">
-        <v>27.83306248496995</v>
+        <v>45.36277061812323</v>
       </c>
       <c r="R10">
-        <v>27.83306248496995</v>
+        <v>408.264935563109</v>
       </c>
       <c r="S10">
-        <v>0.001058493079679559</v>
+        <v>0.001517018923687377</v>
       </c>
       <c r="T10">
-        <v>0.001058493079679559</v>
+        <v>0.001721817763163133</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.077353138983391</v>
+        <v>8.625897666666667</v>
       </c>
       <c r="H11">
-        <v>8.077353138983391</v>
+        <v>25.877693</v>
       </c>
       <c r="I11">
-        <v>0.01142256593313733</v>
+        <v>0.0116079444358635</v>
       </c>
       <c r="J11">
-        <v>0.01142256593313733</v>
+        <v>0.01170485145655119</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.85474560736294</v>
+        <v>10.239676</v>
       </c>
       <c r="N11">
-        <v>9.85474560736294</v>
+        <v>30.719028</v>
       </c>
       <c r="O11">
-        <v>0.2650195078351736</v>
+        <v>0.2544641597406895</v>
       </c>
       <c r="P11">
-        <v>0.2650195078351736</v>
+        <v>0.2864258575096481</v>
       </c>
       <c r="Q11">
-        <v>79.60026036551582</v>
+        <v>88.32639731582266</v>
       </c>
       <c r="R11">
-        <v>79.60026036551582</v>
+        <v>794.9375758424039</v>
       </c>
       <c r="S11">
-        <v>0.003027202801814877</v>
+        <v>0.002953805827188617</v>
       </c>
       <c r="T11">
-        <v>0.003027202801814877</v>
+        <v>0.003352572115465727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.077353138983391</v>
+        <v>8.625897666666667</v>
       </c>
       <c r="H12">
-        <v>8.077353138983391</v>
+        <v>25.877693</v>
       </c>
       <c r="I12">
-        <v>0.01142256593313733</v>
+        <v>0.0116079444358635</v>
       </c>
       <c r="J12">
-        <v>0.01142256593313733</v>
+        <v>0.01170485145655119</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.76014866521763</v>
+        <v>7.123003666666666</v>
       </c>
       <c r="N12">
-        <v>6.76014866521763</v>
+        <v>21.369011</v>
       </c>
       <c r="O12">
-        <v>0.1817978204135494</v>
+        <v>0.1770123530147031</v>
       </c>
       <c r="P12">
-        <v>0.1817978204135494</v>
+        <v>0.1992457996980927</v>
       </c>
       <c r="Q12">
-        <v>54.60410804099001</v>
+        <v>61.4423007079581</v>
       </c>
       <c r="R12">
-        <v>54.60410804099001</v>
+        <v>552.9807063716229</v>
       </c>
       <c r="S12">
-        <v>0.002076597590174428</v>
+        <v>0.002054749558256128</v>
       </c>
       <c r="T12">
-        <v>0.002076597590174428</v>
+        <v>0.002332142488807927</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.077353138983391</v>
+        <v>8.625897666666667</v>
       </c>
       <c r="H13">
-        <v>8.077353138983391</v>
+        <v>25.877693</v>
       </c>
       <c r="I13">
-        <v>0.01142256593313733</v>
+        <v>0.0116079444358635</v>
       </c>
       <c r="J13">
-        <v>0.01142256593313733</v>
+        <v>0.01170485145655119</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.64629397379803</v>
+        <v>6.848795</v>
       </c>
       <c r="N13">
-        <v>6.64629397379803</v>
+        <v>13.69759</v>
       </c>
       <c r="O13">
-        <v>0.1787359743256906</v>
+        <v>0.1701980477615928</v>
       </c>
       <c r="P13">
-        <v>0.1787359743256906</v>
+        <v>0.1277170606298344</v>
       </c>
       <c r="Q13">
-        <v>53.68446349186391</v>
+        <v>59.07700480997833</v>
       </c>
       <c r="R13">
-        <v>53.68446349186391</v>
+        <v>354.46202885987</v>
       </c>
       <c r="S13">
-        <v>0.002041623451358742</v>
+        <v>0.001975649481509011</v>
       </c>
       <c r="T13">
-        <v>0.002041623451358742</v>
+        <v>0.001494909223139553</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>385.734484678621</v>
+        <v>406.45166</v>
       </c>
       <c r="H14">
-        <v>385.734484678621</v>
+        <v>1219.35498</v>
       </c>
       <c r="I14">
-        <v>0.5454853227428467</v>
+        <v>0.5469654831840475</v>
       </c>
       <c r="J14">
-        <v>0.5454853227428467</v>
+        <v>0.5515317348306877</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.60841422868422</v>
+        <v>6.6221625</v>
       </c>
       <c r="N14">
-        <v>6.60841422868422</v>
+        <v>13.244325</v>
       </c>
       <c r="O14">
-        <v>0.1777172903528153</v>
+        <v>0.1645660484012193</v>
       </c>
       <c r="P14">
-        <v>0.1777172903528153</v>
+        <v>0.1234907935648703</v>
       </c>
       <c r="Q14">
-        <v>2549.093257044374</v>
+        <v>2691.58894091475</v>
       </c>
       <c r="R14">
-        <v>2549.093257044374</v>
+        <v>16149.5336454885</v>
       </c>
       <c r="S14">
-        <v>0.09694217348508963</v>
+        <v>0.09001194817946226</v>
       </c>
       <c r="T14">
-        <v>0.09694217348508963</v>
+        <v>0.06810909161045123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>385.734484678621</v>
+        <v>406.45166</v>
       </c>
       <c r="H15">
-        <v>385.734484678621</v>
+        <v>1219.35498</v>
       </c>
       <c r="I15">
-        <v>0.5454853227428467</v>
+        <v>0.5469654831840475</v>
       </c>
       <c r="J15">
-        <v>0.5454853227428467</v>
+        <v>0.5515317348306877</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.86956470784612</v>
+        <v>4.147608666666667</v>
       </c>
       <c r="N15">
-        <v>3.86956470784612</v>
+        <v>12.442826</v>
       </c>
       <c r="O15">
-        <v>0.1040625679513766</v>
+        <v>0.1030714013115781</v>
       </c>
       <c r="P15">
-        <v>0.1040625679513766</v>
+        <v>0.1160175740877395</v>
       </c>
       <c r="Q15">
-        <v>1492.624548511602</v>
+        <v>1685.802427597053</v>
       </c>
       <c r="R15">
-        <v>1492.624548511602</v>
+        <v>15172.22184837348</v>
       </c>
       <c r="S15">
-        <v>0.05676460346440609</v>
+        <v>0.05637649882084418</v>
       </c>
       <c r="T15">
-        <v>0.05676460346440609</v>
+        <v>0.06398737390745882</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>385.734484678621</v>
+        <v>406.45166</v>
       </c>
       <c r="H16">
-        <v>385.734484678621</v>
+        <v>1219.35498</v>
       </c>
       <c r="I16">
-        <v>0.5454853227428467</v>
+        <v>0.5469654831840475</v>
       </c>
       <c r="J16">
-        <v>0.5454853227428467</v>
+        <v>0.5515317348306877</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.44581473733523</v>
+        <v>5.258904333333334</v>
       </c>
       <c r="N16">
-        <v>3.44581473733523</v>
+        <v>15.776713</v>
       </c>
       <c r="O16">
-        <v>0.09266683912139452</v>
+        <v>0.1306879897702171</v>
       </c>
       <c r="P16">
-        <v>0.09266683912139452</v>
+        <v>0.147102914509815</v>
       </c>
       <c r="Q16">
-        <v>1329.169572004003</v>
+        <v>2137.490396064527</v>
       </c>
       <c r="R16">
-        <v>1329.169572004003</v>
+        <v>19237.41356458074</v>
       </c>
       <c r="S16">
-        <v>0.05054840064569334</v>
+        <v>0.07148181947101866</v>
       </c>
       <c r="T16">
-        <v>0.05054840064569334</v>
+        <v>0.08113192563824861</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>385.734484678621</v>
+        <v>406.45166</v>
       </c>
       <c r="H17">
-        <v>385.734484678621</v>
+        <v>1219.35498</v>
       </c>
       <c r="I17">
-        <v>0.5454853227428467</v>
+        <v>0.5469654831840475</v>
       </c>
       <c r="J17">
-        <v>0.5454853227428467</v>
+        <v>0.5515317348306877</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.85474560736294</v>
+        <v>10.239676</v>
       </c>
       <c r="N17">
-        <v>9.85474560736294</v>
+        <v>30.719028</v>
       </c>
       <c r="O17">
-        <v>0.2650195078351736</v>
+        <v>0.2544641597406895</v>
       </c>
       <c r="P17">
-        <v>0.2650195078351736</v>
+        <v>0.2864258575096481</v>
       </c>
       <c r="Q17">
-        <v>3801.315218495048</v>
+        <v>4161.93330806216</v>
       </c>
       <c r="R17">
-        <v>3801.315218495048</v>
+        <v>37457.39977255944</v>
       </c>
       <c r="S17">
-        <v>0.1445642517646201</v>
+        <v>0.1391831120855889</v>
       </c>
       <c r="T17">
-        <v>0.1445642517646201</v>
+        <v>0.1579729500926636</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>385.734484678621</v>
+        <v>406.45166</v>
       </c>
       <c r="H18">
-        <v>385.734484678621</v>
+        <v>1219.35498</v>
       </c>
       <c r="I18">
-        <v>0.5454853227428467</v>
+        <v>0.5469654831840475</v>
       </c>
       <c r="J18">
-        <v>0.5454853227428467</v>
+        <v>0.5515317348306877</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.76014866521763</v>
+        <v>7.123003666666666</v>
       </c>
       <c r="N18">
-        <v>6.76014866521763</v>
+        <v>21.369011</v>
       </c>
       <c r="O18">
-        <v>0.1817978204135494</v>
+        <v>0.1770123530147031</v>
       </c>
       <c r="P18">
-        <v>0.1817978204135494</v>
+        <v>0.1992457996980927</v>
       </c>
       <c r="Q18">
-        <v>2607.62246172859</v>
+        <v>2895.156664502753</v>
       </c>
       <c r="R18">
-        <v>2607.62246172859</v>
+        <v>26056.40998052478</v>
       </c>
       <c r="S18">
-        <v>0.09916804274223107</v>
+        <v>0.09681964719623229</v>
       </c>
       <c r="T18">
-        <v>0.09916804274223107</v>
+        <v>0.1098903815652168</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>385.734484678621</v>
+        <v>406.45166</v>
       </c>
       <c r="H19">
-        <v>385.734484678621</v>
+        <v>1219.35498</v>
       </c>
       <c r="I19">
-        <v>0.5454853227428467</v>
+        <v>0.5469654831840475</v>
       </c>
       <c r="J19">
-        <v>0.5454853227428467</v>
+        <v>0.5515317348306877</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.64629397379803</v>
+        <v>6.848795</v>
       </c>
       <c r="N19">
-        <v>6.64629397379803</v>
+        <v>13.69759</v>
       </c>
       <c r="O19">
-        <v>0.1787359743256906</v>
+        <v>0.1701980477615928</v>
       </c>
       <c r="P19">
-        <v>0.1787359743256906</v>
+        <v>0.1277170606298344</v>
       </c>
       <c r="Q19">
-        <v>2563.704781005607</v>
+        <v>2783.7040967497</v>
       </c>
       <c r="R19">
-        <v>2563.704781005607</v>
+        <v>16702.2245804982</v>
       </c>
       <c r="S19">
-        <v>0.09749785064080647</v>
+        <v>0.09309245743090119</v>
       </c>
       <c r="T19">
-        <v>0.09749785064080647</v>
+        <v>0.07044001201664869</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>296.084244901834</v>
+        <v>307.0968833333333</v>
       </c>
       <c r="H20">
-        <v>296.084244901834</v>
+        <v>921.29065</v>
       </c>
       <c r="I20">
-        <v>0.4187066915313846</v>
+        <v>0.4132629085011776</v>
       </c>
       <c r="J20">
-        <v>0.4187066915313846</v>
+        <v>0.4167129661272159</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.60841422868422</v>
+        <v>6.6221625</v>
       </c>
       <c r="N20">
-        <v>6.60841422868422</v>
+        <v>13.244325</v>
       </c>
       <c r="O20">
-        <v>0.1777172903528153</v>
+        <v>0.1645660484012193</v>
       </c>
       <c r="P20">
-        <v>0.1777172903528153</v>
+        <v>0.1234907935648703</v>
       </c>
       <c r="Q20">
-        <v>1956.647336898503</v>
+        <v>2033.645464676875</v>
       </c>
       <c r="R20">
-        <v>1956.647336898503</v>
+        <v>12201.87278806125</v>
       </c>
       <c r="S20">
-        <v>0.07441141867154974</v>
+        <v>0.06800904380283346</v>
       </c>
       <c r="T20">
-        <v>0.07441141867154974</v>
+        <v>0.0514602148758208</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>296.084244901834</v>
+        <v>307.0968833333333</v>
       </c>
       <c r="H21">
-        <v>296.084244901834</v>
+        <v>921.29065</v>
       </c>
       <c r="I21">
-        <v>0.4187066915313846</v>
+        <v>0.4132629085011776</v>
       </c>
       <c r="J21">
-        <v>0.4187066915313846</v>
+        <v>0.4167129661272159</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.86956470784612</v>
+        <v>4.147608666666667</v>
       </c>
       <c r="N21">
-        <v>3.86956470784612</v>
+        <v>12.442826</v>
       </c>
       <c r="O21">
-        <v>0.1040625679513766</v>
+        <v>0.1030714013115781</v>
       </c>
       <c r="P21">
-        <v>0.1040625679513766</v>
+        <v>0.1160175740877395</v>
       </c>
       <c r="Q21">
-        <v>1145.717144621404</v>
+        <v>1273.717694819655</v>
       </c>
       <c r="R21">
-        <v>1145.717144621404</v>
+        <v>11463.4592533769</v>
       </c>
       <c r="S21">
-        <v>0.04357169353918081</v>
+        <v>0.04259558708931486</v>
       </c>
       <c r="T21">
-        <v>0.04357169353918081</v>
+        <v>0.04834602742098595</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>296.084244901834</v>
+        <v>307.0968833333333</v>
       </c>
       <c r="H22">
-        <v>296.084244901834</v>
+        <v>921.29065</v>
       </c>
       <c r="I22">
-        <v>0.4187066915313846</v>
+        <v>0.4132629085011776</v>
       </c>
       <c r="J22">
-        <v>0.4187066915313846</v>
+        <v>0.4167129661272159</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.44581473733523</v>
+        <v>5.258904333333334</v>
       </c>
       <c r="N22">
-        <v>3.44581473733523</v>
+        <v>15.776713</v>
       </c>
       <c r="O22">
-        <v>0.09266683912139452</v>
+        <v>0.1306879897702171</v>
       </c>
       <c r="P22">
-        <v>0.09266683912139452</v>
+        <v>0.147102914509815</v>
       </c>
       <c r="Q22">
-        <v>1020.251454575513</v>
+        <v>1614.993130514828</v>
       </c>
       <c r="R22">
-        <v>1020.251454575513</v>
+        <v>14534.93817463345</v>
       </c>
       <c r="S22">
-        <v>0.03880022562319018</v>
+        <v>0.05400849875861207</v>
       </c>
       <c r="T22">
-        <v>0.03880022562319018</v>
+        <v>0.06129969183134327</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>296.084244901834</v>
+        <v>307.0968833333333</v>
       </c>
       <c r="H23">
-        <v>296.084244901834</v>
+        <v>921.29065</v>
       </c>
       <c r="I23">
-        <v>0.4187066915313846</v>
+        <v>0.4132629085011776</v>
       </c>
       <c r="J23">
-        <v>0.4187066915313846</v>
+        <v>0.4167129661272159</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.85474560736294</v>
+        <v>10.239676</v>
       </c>
       <c r="N23">
-        <v>9.85474560736294</v>
+        <v>30.719028</v>
       </c>
       <c r="O23">
-        <v>0.2650195078351736</v>
+        <v>0.2544641597406895</v>
       </c>
       <c r="P23">
-        <v>0.2650195078351736</v>
+        <v>0.2864258575096481</v>
       </c>
       <c r="Q23">
-        <v>2917.834911855721</v>
+        <v>3144.572585943133</v>
       </c>
       <c r="R23">
-        <v>2917.834911855721</v>
+        <v>28301.1532734882</v>
       </c>
       <c r="S23">
-        <v>0.1109654413169414</v>
+        <v>0.1051605987637456</v>
       </c>
       <c r="T23">
-        <v>0.1109654413169414</v>
+        <v>0.1193573686583767</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>296.084244901834</v>
+        <v>307.0968833333333</v>
       </c>
       <c r="H24">
-        <v>296.084244901834</v>
+        <v>921.29065</v>
       </c>
       <c r="I24">
-        <v>0.4187066915313846</v>
+        <v>0.4132629085011776</v>
       </c>
       <c r="J24">
-        <v>0.4187066915313846</v>
+        <v>0.4167129661272159</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.76014866521763</v>
+        <v>7.123003666666666</v>
       </c>
       <c r="N24">
-        <v>6.76014866521763</v>
+        <v>21.369011</v>
       </c>
       <c r="O24">
-        <v>0.1817978204135494</v>
+        <v>0.1770123530147031</v>
       </c>
       <c r="P24">
-        <v>0.1817978204135494</v>
+        <v>0.1992457996980927</v>
       </c>
       <c r="Q24">
-        <v>2001.573512965103</v>
+        <v>2187.452226005239</v>
       </c>
       <c r="R24">
-        <v>2001.573512965103</v>
+        <v>19687.07003404715</v>
       </c>
       <c r="S24">
-        <v>0.07611996391297408</v>
+        <v>0.07315263984749341</v>
       </c>
       <c r="T24">
-        <v>0.07611996391297408</v>
+        <v>0.08302830818058135</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>296.084244901834</v>
+        <v>307.0968833333333</v>
       </c>
       <c r="H25">
-        <v>296.084244901834</v>
+        <v>921.29065</v>
       </c>
       <c r="I25">
-        <v>0.4187066915313846</v>
+        <v>0.4132629085011776</v>
       </c>
       <c r="J25">
-        <v>0.4187066915313846</v>
+        <v>0.4167129661272159</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.64629397379803</v>
+        <v>6.848795</v>
       </c>
       <c r="N25">
-        <v>6.64629397379803</v>
+        <v>13.69759</v>
       </c>
       <c r="O25">
-        <v>0.1787359743256906</v>
+        <v>0.1701980477615928</v>
       </c>
       <c r="P25">
-        <v>0.1787359743256906</v>
+        <v>0.1277170606298344</v>
       </c>
       <c r="Q25">
-        <v>1967.862932627599</v>
+        <v>2103.243599088917</v>
       </c>
       <c r="R25">
-        <v>1967.862932627599</v>
+        <v>12619.4615945335</v>
       </c>
       <c r="S25">
-        <v>0.0748379484675484</v>
+        <v>0.07033654023917818</v>
       </c>
       <c r="T25">
-        <v>0.0748379484675484</v>
+        <v>0.05322135516010776</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.08883815406603</v>
+        <v>2.471567</v>
       </c>
       <c r="H26">
-        <v>2.08883815406603</v>
+        <v>7.414701</v>
       </c>
       <c r="I26">
-        <v>0.002953924525512957</v>
+        <v>0.003326008899500489</v>
       </c>
       <c r="J26">
-        <v>0.002953924525512957</v>
+        <v>0.003353775539409234</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.60841422868422</v>
+        <v>6.6221625</v>
       </c>
       <c r="N26">
-        <v>6.60841422868422</v>
+        <v>13.244325</v>
       </c>
       <c r="O26">
-        <v>0.1777172903528153</v>
+        <v>0.1645660484012193</v>
       </c>
       <c r="P26">
-        <v>0.1777172903528153</v>
+        <v>0.1234907935648703</v>
       </c>
       <c r="Q26">
-        <v>13.80390777874843</v>
+        <v>16.3671183036375</v>
       </c>
       <c r="R26">
-        <v>13.80390777874843</v>
+        <v>98.202709821825</v>
       </c>
       <c r="S26">
-        <v>0.0005249634625808883</v>
+        <v>0.0005473481415380836</v>
       </c>
       <c r="T26">
-        <v>0.0005249634625808883</v>
+        <v>0.0004141604028000972</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.08883815406603</v>
+        <v>2.471567</v>
       </c>
       <c r="H27">
-        <v>2.08883815406603</v>
+        <v>7.414701</v>
       </c>
       <c r="I27">
-        <v>0.002953924525512957</v>
+        <v>0.003326008899500489</v>
       </c>
       <c r="J27">
-        <v>0.002953924525512957</v>
+        <v>0.003353775539409234</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.86956470784612</v>
+        <v>4.147608666666667</v>
       </c>
       <c r="N27">
-        <v>3.86956470784612</v>
+        <v>12.442826</v>
       </c>
       <c r="O27">
-        <v>0.1040625679513766</v>
+        <v>0.1030714013115781</v>
       </c>
       <c r="P27">
-        <v>0.1040625679513766</v>
+        <v>0.1160175740877395</v>
       </c>
       <c r="Q27">
-        <v>8.082894401376347</v>
+        <v>10.25109270944733</v>
       </c>
       <c r="R27">
-        <v>8.082894401376347</v>
+        <v>92.259834385026</v>
       </c>
       <c r="S27">
-        <v>0.00030739297165943</v>
+        <v>0.0003428163980462951</v>
       </c>
       <c r="T27">
-        <v>0.00030739297165943</v>
+        <v>0.0003890969021170593</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.08883815406603</v>
+        <v>2.471567</v>
       </c>
       <c r="H28">
-        <v>2.08883815406603</v>
+        <v>7.414701</v>
       </c>
       <c r="I28">
-        <v>0.002953924525512957</v>
+        <v>0.003326008899500489</v>
       </c>
       <c r="J28">
-        <v>0.002953924525512957</v>
+        <v>0.003353775539409234</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.44581473733523</v>
+        <v>5.258904333333334</v>
       </c>
       <c r="N28">
-        <v>3.44581473733523</v>
+        <v>15.776713</v>
       </c>
       <c r="O28">
-        <v>0.09266683912139452</v>
+        <v>0.1306879897702171</v>
       </c>
       <c r="P28">
-        <v>0.09266683912139452</v>
+        <v>0.147102914509815</v>
       </c>
       <c r="Q28">
-        <v>7.197749295188845</v>
+        <v>12.99773440642367</v>
       </c>
       <c r="R28">
-        <v>7.197749295188845</v>
+        <v>116.979609657813</v>
       </c>
       <c r="S28">
-        <v>0.0002737308487824508</v>
+        <v>0.0004346694170335709</v>
       </c>
       <c r="T28">
-        <v>0.0002737308487824508</v>
+        <v>0.0004933501564588252</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.08883815406603</v>
+        <v>2.471567</v>
       </c>
       <c r="H29">
-        <v>2.08883815406603</v>
+        <v>7.414701</v>
       </c>
       <c r="I29">
-        <v>0.002953924525512957</v>
+        <v>0.003326008899500489</v>
       </c>
       <c r="J29">
-        <v>0.002953924525512957</v>
+        <v>0.003353775539409234</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>9.85474560736294</v>
+        <v>10.239676</v>
       </c>
       <c r="N29">
-        <v>9.85474560736294</v>
+        <v>30.719028</v>
       </c>
       <c r="O29">
-        <v>0.2650195078351736</v>
+        <v>0.2544641597406895</v>
       </c>
       <c r="P29">
-        <v>0.2650195078351736</v>
+        <v>0.2864258575096481</v>
       </c>
       <c r="Q29">
-        <v>20.58496862327432</v>
+        <v>25.308045292292</v>
       </c>
       <c r="R29">
-        <v>20.58496862327432</v>
+        <v>227.772407630628</v>
       </c>
       <c r="S29">
-        <v>0.0007828476239336927</v>
+        <v>0.0008463500599014471</v>
       </c>
       <c r="T29">
-        <v>0.0007828476239336927</v>
+        <v>0.0009606080347701721</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.08883815406603</v>
+        <v>2.471567</v>
       </c>
       <c r="H30">
-        <v>2.08883815406603</v>
+        <v>7.414701</v>
       </c>
       <c r="I30">
-        <v>0.002953924525512957</v>
+        <v>0.003326008899500489</v>
       </c>
       <c r="J30">
-        <v>0.002953924525512957</v>
+        <v>0.003353775539409234</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.76014866521763</v>
+        <v>7.123003666666666</v>
       </c>
       <c r="N30">
-        <v>6.76014866521763</v>
+        <v>21.369011</v>
       </c>
       <c r="O30">
-        <v>0.1817978204135494</v>
+        <v>0.1770123530147031</v>
       </c>
       <c r="P30">
-        <v>0.1817978204135494</v>
+        <v>0.1992457996980927</v>
       </c>
       <c r="Q30">
-        <v>14.12085645906513</v>
+        <v>17.60498080341233</v>
       </c>
       <c r="R30">
-        <v>14.12085645906513</v>
+        <v>158.444827230711</v>
       </c>
       <c r="S30">
-        <v>0.0005370170404043837</v>
+        <v>0.0005887446614484248</v>
       </c>
       <c r="T30">
-        <v>0.0005370170404043837</v>
+        <v>0.0006682256893574951</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.08883815406603</v>
+        <v>2.471567</v>
       </c>
       <c r="H31">
-        <v>2.08883815406603</v>
+        <v>7.414701</v>
       </c>
       <c r="I31">
-        <v>0.002953924525512957</v>
+        <v>0.003326008899500489</v>
       </c>
       <c r="J31">
-        <v>0.002953924525512957</v>
+        <v>0.003353775539409234</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.64629397379803</v>
+        <v>6.848795</v>
       </c>
       <c r="N31">
-        <v>6.64629397379803</v>
+        <v>13.69759</v>
       </c>
       <c r="O31">
-        <v>0.1787359743256906</v>
+        <v>0.1701980477615928</v>
       </c>
       <c r="P31">
-        <v>0.1787359743256906</v>
+        <v>0.1277170606298344</v>
       </c>
       <c r="Q31">
-        <v>13.88303243560846</v>
+        <v>16.927255711765</v>
       </c>
       <c r="R31">
-        <v>13.88303243560846</v>
+        <v>101.56353427059</v>
       </c>
       <c r="S31">
-        <v>0.0005279725781521116</v>
+        <v>0.0005660802215326668</v>
       </c>
       <c r="T31">
-        <v>0.0005279725781521116</v>
+        <v>0.0004283343539055847</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>13.3569350320821</v>
+        <v>16.258465</v>
       </c>
       <c r="H32">
-        <v>13.3569350320821</v>
+        <v>32.51693</v>
       </c>
       <c r="I32">
-        <v>0.01888867162836365</v>
+        <v>0.02187915572679892</v>
       </c>
       <c r="J32">
-        <v>0.01888867162836365</v>
+        <v>0.01470787351380484</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.60841422868422</v>
+        <v>6.6221625</v>
       </c>
       <c r="N32">
-        <v>6.60841422868422</v>
+        <v>13.244325</v>
       </c>
       <c r="O32">
-        <v>0.1777172903528153</v>
+        <v>0.1645660484012193</v>
       </c>
       <c r="P32">
-        <v>0.1777172903528153</v>
+        <v>0.1234907935648703</v>
       </c>
       <c r="Q32">
-        <v>88.26815951762207</v>
+        <v>107.6661972305625</v>
       </c>
       <c r="R32">
-        <v>88.26815951762207</v>
+        <v>430.66478892225</v>
       </c>
       <c r="S32">
-        <v>0.003356843540156886</v>
+        <v>0.003600566200314205</v>
       </c>
       <c r="T32">
-        <v>0.003356843540156886</v>
+        <v>0.001816286971871497</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>13.3569350320821</v>
+        <v>16.258465</v>
       </c>
       <c r="H33">
-        <v>13.3569350320821</v>
+        <v>32.51693</v>
       </c>
       <c r="I33">
-        <v>0.01888867162836365</v>
+        <v>0.02187915572679892</v>
       </c>
       <c r="J33">
-        <v>0.01888867162836365</v>
+        <v>0.01470787351380484</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.86956470784612</v>
+        <v>4.147608666666667</v>
       </c>
       <c r="N33">
-        <v>3.86956470784612</v>
+        <v>12.442826</v>
       </c>
       <c r="O33">
-        <v>0.1040625679513766</v>
+        <v>0.1030714013115781</v>
       </c>
       <c r="P33">
-        <v>0.1040625679513766</v>
+        <v>0.1160175740877395</v>
       </c>
       <c r="Q33">
-        <v>51.68552440513838</v>
+        <v>67.43375034069668</v>
       </c>
       <c r="R33">
-        <v>51.68552440513838</v>
+        <v>404.60250204418</v>
       </c>
       <c r="S33">
-        <v>0.001965603674837832</v>
+        <v>0.002255115240275404</v>
       </c>
       <c r="T33">
-        <v>0.001965603674837832</v>
+        <v>0.001706371805060955</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>13.3569350320821</v>
+        <v>16.258465</v>
       </c>
       <c r="H34">
-        <v>13.3569350320821</v>
+        <v>32.51693</v>
       </c>
       <c r="I34">
-        <v>0.01888867162836365</v>
+        <v>0.02187915572679892</v>
       </c>
       <c r="J34">
-        <v>0.01888867162836365</v>
+        <v>0.01470787351380484</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.44581473733523</v>
+        <v>5.258904333333334</v>
       </c>
       <c r="N34">
-        <v>3.44581473733523</v>
+        <v>15.776713</v>
       </c>
       <c r="O34">
-        <v>0.09266683912139452</v>
+        <v>0.1306879897702171</v>
       </c>
       <c r="P34">
-        <v>0.09266683912139452</v>
+        <v>0.147102914509815</v>
       </c>
       <c r="Q34">
-        <v>46.02552357917772</v>
+        <v>85.50171204184835</v>
       </c>
       <c r="R34">
-        <v>46.02552357917772</v>
+        <v>513.0102722510901</v>
       </c>
       <c r="S34">
-        <v>0.001750353495002423</v>
+        <v>0.002859342879804884</v>
       </c>
       <c r="T34">
-        <v>0.001750353495002423</v>
+        <v>0.002163571060122406</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>13.3569350320821</v>
+        <v>16.258465</v>
       </c>
       <c r="H35">
-        <v>13.3569350320821</v>
+        <v>32.51693</v>
       </c>
       <c r="I35">
-        <v>0.01888867162836365</v>
+        <v>0.02187915572679892</v>
       </c>
       <c r="J35">
-        <v>0.01888867162836365</v>
+        <v>0.01470787351380484</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>9.85474560736294</v>
+        <v>10.239676</v>
       </c>
       <c r="N35">
-        <v>9.85474560736294</v>
+        <v>30.719028</v>
       </c>
       <c r="O35">
-        <v>0.2650195078351736</v>
+        <v>0.2544641597406895</v>
       </c>
       <c r="P35">
-        <v>0.2650195078351736</v>
+        <v>0.2864258575096481</v>
       </c>
       <c r="Q35">
-        <v>131.6291968352432</v>
+        <v>166.48141385734</v>
       </c>
       <c r="R35">
-        <v>131.6291968352432</v>
+        <v>998.88848314404</v>
       </c>
       <c r="S35">
-        <v>0.005005866458609141</v>
+        <v>0.005567460977855581</v>
       </c>
       <c r="T35">
-        <v>0.005005866458609141</v>
+        <v>0.004212715283334993</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>13.3569350320821</v>
+        <v>16.258465</v>
       </c>
       <c r="H36">
-        <v>13.3569350320821</v>
+        <v>32.51693</v>
       </c>
       <c r="I36">
-        <v>0.01888867162836365</v>
+        <v>0.02187915572679892</v>
       </c>
       <c r="J36">
-        <v>0.01888867162836365</v>
+        <v>0.01470787351380484</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.76014866521763</v>
+        <v>7.123003666666666</v>
       </c>
       <c r="N36">
-        <v>6.76014866521763</v>
+        <v>21.369011</v>
       </c>
       <c r="O36">
-        <v>0.1817978204135494</v>
+        <v>0.1770123530147031</v>
       </c>
       <c r="P36">
-        <v>0.1817978204135494</v>
+        <v>0.1992457996980927</v>
       </c>
       <c r="Q36">
-        <v>90.29486652852842</v>
+        <v>115.8091058093717</v>
       </c>
       <c r="R36">
-        <v>90.29486652852842</v>
+        <v>694.8546348562299</v>
       </c>
       <c r="S36">
-        <v>0.00343391933254376</v>
+        <v>0.003872880837175794</v>
       </c>
       <c r="T36">
-        <v>0.00343391933254376</v>
+        <v>0.002930482020116443</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>13.3569350320821</v>
+        <v>16.258465</v>
       </c>
       <c r="H37">
-        <v>13.3569350320821</v>
+        <v>32.51693</v>
       </c>
       <c r="I37">
-        <v>0.01888867162836365</v>
+        <v>0.02187915572679892</v>
       </c>
       <c r="J37">
-        <v>0.01888867162836365</v>
+        <v>0.01470787351380484</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.64629397379803</v>
+        <v>6.848795</v>
       </c>
       <c r="N37">
-        <v>6.64629397379803</v>
+        <v>13.69759</v>
       </c>
       <c r="O37">
-        <v>0.1787359743256906</v>
+        <v>0.1701980477615928</v>
       </c>
       <c r="P37">
-        <v>0.1787359743256906</v>
+        <v>0.1277170606298344</v>
       </c>
       <c r="Q37">
-        <v>88.77411681213906</v>
+        <v>111.350893799675</v>
       </c>
       <c r="R37">
-        <v>88.77411681213906</v>
+        <v>445.4035751987</v>
       </c>
       <c r="S37">
-        <v>0.003376085127213605</v>
+        <v>0.003723789591373049</v>
       </c>
       <c r="T37">
-        <v>0.003376085127213605</v>
+        <v>0.001878446373298549</v>
       </c>
     </row>
   </sheetData>
